--- a/biology/Botanique/Takagi_Bonsai_Museum/Takagi_Bonsai_Museum.xlsx
+++ b/biology/Botanique/Takagi_Bonsai_Museum/Takagi_Bonsai_Museum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Takagi Bonsai Museum est un musée japonais sur les bonsaïs. Il est situé à Tokyo, dans le quartier de Chiyoda-ku, et occupe les deux derniers étages de l'immeuble du siège de la société Meiko Shokai[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Takagi Bonsai Museum est un musée japonais sur les bonsaïs. Il est situé à Tokyo, dans le quartier de Chiyoda-ku, et occupe les deux derniers étages de l'immeuble du siège de la société Meiko Shokai.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Takagi Bonsai Museum a été fondé en 1994[2] par Reiji Takagi, un homme d'affaires prospère, président de Meiko Shokai, fabricant japonais de déchiqueteuses (qui possède 80 % de parts de marché au Japon) et, en outre, président de la Fondation Takagi d'horticulture traditionnelle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Takagi Bonsai Museum a été fondé en 1994 par Reiji Takagi, un homme d'affaires prospère, président de Meiko Shokai, fabricant japonais de déchiqueteuses (qui possède 80 % de parts de marché au Japon) et, en outre, président de la Fondation Takagi d'horticulture traditionnelle.
 Il abrite le plus vieux bonsaï référencé au monde, un pin blanc du Japon (Pinus parviflora) qui daterait des années 1500.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hiroshi Chida, Bonsai: Nature as fine art at Takagi museum, Stars and Stripes, Février 2004</t>
         </is>
